--- a/datos/femicidios_2023.xlsx
+++ b/datos/femicidios_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:AI55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,6 +525,11 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
+          <t>informacion_medios_3</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
           <t>informacion_actualizada_por_ultima_vez_el</t>
         </is>
       </c>
@@ -615,12 +620,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -653,7 +653,7 @@
           <t>https://www.eldesconcierto.cl/nacional/2023/01/01/excarabinero-detenido-por-el-primer-femicidio-del-2023-asesino-a-su-pareja-en-osorno.html</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>2023-01-02</t>
         </is>
@@ -725,12 +725,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -758,7 +753,7 @@
           <t>54-2023</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>2023-01-15</t>
         </is>
@@ -845,12 +840,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -873,7 +863,7 @@
           <t>https://www.canal9.cl/programas/noticias/2023/01/12/pdi-indaga-femicidio-en-coronel-encontraron-el-cuerpo-al-interior-de-una-vivienda.shtml</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>2023-01-12</t>
         </is>
@@ -950,12 +940,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -983,7 +968,7 @@
           <t>https://www.preludioradio.cl/san-esteban-bestia-mata-a-su-esposa-con-44-punaladas/</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>2023-01-15</t>
         </is>
@@ -1065,12 +1050,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1098,7 +1078,7 @@
           <t>https://www.diariodevaldivia.cl/noticia/actualidad/2023/01/identifican-a-osornina-de-29-anos-victima-de-femicidio-en-la-costa</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>2023-01-15</t>
         </is>
@@ -1190,12 +1170,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1218,7 +1193,7 @@
           <t>https://www.chvnoticias.cl/casos-policiales/autor-crimen-mujer-colombiana-acusado-homicidio-2017_20230124/</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>2023-01-25</t>
         </is>
@@ -1305,12 +1280,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1343,7 +1313,7 @@
           <t>https://www.facebook.com/watch/?v=147453277910410</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>2023-03-14</t>
         </is>
@@ -1430,12 +1400,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1473,7 +1438,7 @@
           <t>https://www.biobiochile.cl/noticias/nacional/region-del-bio-bio/2023/03/09/investigan-femicidio-con-posterior-suicidio-en-concepcion-quedo-al-descubierto-tras-amago-de-incendio.shtml</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>2023-03-22</t>
         </is>
@@ -1535,7 +1500,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
+          <t>Eduardo Baltazar Aceitón González</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1555,27 +1520,27 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Detenido</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Talca</t>
+          <t>Tribunal de Juicio Oral en lo Penal de Talca</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>20 años</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -1583,9 +1548,14 @@
           <t>https://www.emol.com/noticias/Nacional/2023/03/27/1090495/mujer-asesinada-con-un-hacha.html</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2023-03-29</t>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>https://radiofmmas.cl/eduardo-aceiton-declarado-culpable-de-femicidio-en-maule-familia-y-comunidad-celebran-justicia/</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1605,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Se desconoce</t>
+          <t>DESCONOCE</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1653,11 +1623,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>Femicidio</t>
-        </is>
-      </c>
       <c r="Y11" t="inlineStr">
         <is>
           <t>En curso</t>
@@ -1678,7 +1643,7 @@
           <t>https://www.biobiochile.cl/noticias/nacional/region-del-bio-bio/2023/03/30/confirman-que-mujer-hallada-muerta-a-un-costado-de-ruta-160-en-lebu-estaba-embarazada.shtml</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>2023-04-02</t>
         </is>
@@ -1775,12 +1740,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1808,7 +1768,7 @@
           <t>https://www.meganoticias.cl/nacional/410364-femicidio-parral-autos-confeso-funcionario-de-gendarmeria-hija-de-4-anos-02-04-2023.html</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
         <is>
           <t>2023-04-02</t>
         </is>
@@ -1895,7 +1855,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -1928,7 +1888,7 @@
           <t>https://www.radioagricultura.cl/nacional/2023/04/29/juzgado-de-garantia-de-curico-decreta-prision-preventiva-para-autor-de-femicidio-en-sagrada-familia/</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>2023-04-30</t>
         </is>
@@ -2020,7 +1980,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2038,7 +1998,7 @@
           <t>https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2023/04/28/femicidio-y-posterior-suicidio-queda-al-descubierto-en-padre-las-casas-victima-fue-baleada.shtml</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
+      <c r="AI14" t="inlineStr">
         <is>
           <t>2023-04-30</t>
         </is>
@@ -2135,12 +2095,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2155,12 +2110,12 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Punta Arenas</t>
+          <t>Tribunal de Juicio Oral en lo Penal de Punta Arenas</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -2168,6 +2123,11 @@
           <t>1297-2023</t>
         </is>
       </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo calificado</t>
+        </is>
+      </c>
       <c r="AF15" t="inlineStr">
         <is>
           <t>https://www.24horas.cl/regiones/zona-sur/magallanes/estuvo-15-anos-preso-por-quemar-a-pareja-y-volvio-a-la-carcel-por-femicidio</t>
@@ -2180,7 +2140,12 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-de-magallanes/2024/07/16/punta-arenas-presidio-perpetuo-para-hombre-que-mato-a-su-pareja-y-arrojo-el-cuerpo-por-una-quebrada.shtml</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2225,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
@@ -2268,7 +2233,7 @@
           <t>https://www.cnnchile.com/pais/femicidio-barrio-franklin_20230516/</t>
         </is>
       </c>
-      <c r="AH16" t="inlineStr">
+      <c r="AI16" t="inlineStr">
         <is>
           <t>2023-05-20</t>
         </is>
@@ -2370,12 +2335,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Femicidio</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2470,12 +2430,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>Femicidio</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2555,7 +2510,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
+          <t>Jaime Alejandro Vega Navarro</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2576,11 +2531,6 @@
       <c r="V19" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Parricidio</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2675,12 +2625,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>Femicidio</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2775,12 +2720,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Femicidio</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2885,7 +2825,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>sí</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2945,7 +2885,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>MEDIOS NO INFORMAN</t>
+          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
@@ -3035,12 +2980,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>sí</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>Femicidio</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3090,7 +3030,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Karen Guajardo González</t>
+          <t>Karin Guajardo González</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3105,7 +3045,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Es golpeada en reiteradas ocasiones por su pareja, mientras estaban en la vía pública. El femicida es quien la traslada a urgencias, donde Karen fallece. Sujeto es detenido por las policías tras 27 días de investigación.</t>
+          <t>Es golpeada en reiteradas ocasiones por su pareja, mientras estaban en la vía pública. El femicida es quien la traslada a urgencias, donde Karen fallece. Sujeto es detenido por las policías tras 27 días de investigación. (conocido como el panzas)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3125,7 +3065,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>MEDIOS NO INFORMAN</t>
+          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3156,11 +3096,6 @@
       <c r="V25" t="inlineStr">
         <is>
           <t>Si</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>Femicidio</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3255,12 +3190,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>Femicidio</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3278,7 +3208,7 @@
           <t>https://www.malleco7.cl/investigan-muerte-de-pareja-en-renaico/</t>
         </is>
       </c>
-      <c r="AH26" t="inlineStr">
+      <c r="AI26" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
@@ -3378,11 +3308,6 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>Femicidio</t>
-        </is>
-      </c>
       <c r="Y27" t="inlineStr">
         <is>
           <t>En curso</t>
@@ -3403,7 +3328,7 @@
           <t>https://www.t13.cl/amp/noticia/nacional/femicidio-puerto-montt-albanil-confeso-asesinato-pareja-se-entrego-10-8-2023</t>
         </is>
       </c>
-      <c r="AH27" t="inlineStr">
+      <c r="AI27" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
@@ -3485,12 +3410,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>Femicidio</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3518,7 +3438,7 @@
           <t>https://www.t13.cl/noticia/nacional/concepcion/femicidio-concepcion-presunto-autor-fue-arrestado-tras-detencion-ciudadana-11-8-2023</t>
         </is>
       </c>
-      <c r="AH28" t="inlineStr">
+      <c r="AI28" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
@@ -3613,9 +3533,9 @@
           <t>Ha sido condenado por violación en dos ocasiones: en 2005 a 5 años de presidio y, en 2013, a 12 años.</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Violación con femicidio</t>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3648,7 +3568,7 @@
           <t>https://www.observador.cl/quillota-imputado-por-violacion-con-femicidio-quedo-en-prision-preventiva/</t>
         </is>
       </c>
-      <c r="AH29" t="inlineStr">
+      <c r="AI29" t="inlineStr">
         <is>
           <t>2023-08-18</t>
         </is>
@@ -3710,7 +3630,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>MEDIOS NO INFORMAN</t>
+          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -3726,11 +3646,6 @@
       <c r="V30" t="inlineStr">
         <is>
           <t>Si</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>Femicidio</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3813,6 +3728,11 @@
           <t>Antecedentes por VIF</t>
         </is>
       </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
       <c r="AF31" t="inlineStr">
         <is>
           <t>https://www.meganoticias.cl/nacional/423359-vuelco-caso-incendio-region-la-araucania-mujer-fallecida-femicidio-23-08-2023.html</t>
@@ -3823,7 +3743,7 @@
           <t>https://www.soychile.cl/Temuco/Policial/2023/08/28/825633/prision-preventiva-acusado-femicidio-villarrica.html</t>
         </is>
       </c>
-      <c r="AH31" t="inlineStr">
+      <c r="AI31" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
@@ -3938,7 +3858,7 @@
           <t>https://www.24horas.cl/internacional/noticias/andres-sutar-capturan-principal-sospechoso-asesinar-javiera-jimenez</t>
         </is>
       </c>
-      <c r="AH32" t="inlineStr">
+      <c r="AI32" t="inlineStr">
         <is>
           <t>2024-01-24</t>
         </is>
@@ -3985,7 +3905,12 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>MEDIOS NO INFORMAN</t>
+          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
@@ -4073,9 +3998,9 @@
           <t>Sujeto tenía antecedentes previos</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>Femicidio no íntimo</t>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4113,7 +4038,7 @@
           <t>https://cooperativa.cl/noticias/pais/policial/femicidio/concepcion-tribunal-dejo-libre-a-sospechoso-de-femicidio/2023-08-31/190818.html</t>
         </is>
       </c>
-      <c r="AH34" t="inlineStr">
+      <c r="AI34" t="inlineStr">
         <is>
           <t>2023-09-02</t>
         </is>
@@ -4140,7 +4065,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Medios no informan</t>
+          <t>MEDIOS NO INFORMAN</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4198,9 +4123,9 @@
           <t>SÍ</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Parricidio</t>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4238,7 +4163,7 @@
           <t>https://www.meganoticias.cl/nacional/424359-parricidio-en-quilicura-hijo-mata-a-su-madre-tras-discusion-02-09-2023.html</t>
         </is>
       </c>
-      <c r="AH35" t="inlineStr">
+      <c r="AI35" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
@@ -4310,7 +4235,12 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>MEDIOS NO INFORMAN</t>
+          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4328,7 +4258,7 @@
           <t>https://www.instagram.com/justicia.para.camila/?utm_source=ig_embed&amp;ig_rid=28511d15-81b2-44ba-b4e9-bb962a3552c7</t>
         </is>
       </c>
-      <c r="AH36" t="inlineStr">
+      <c r="AI36" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
@@ -4403,9 +4333,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
@@ -4460,7 +4390,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Medios no informan</t>
+          <t>MEDIOS NO INFORMAN</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4498,9 +4428,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Parricidio</t>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
@@ -4538,7 +4468,7 @@
           <t>https://www.emol.com/noticias/Nacional/2023/09/17/1107502/parricidio-puerto-montt.html</t>
         </is>
       </c>
-      <c r="AH38" t="inlineStr">
+      <c r="AI38" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
@@ -4600,7 +4530,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>MEDIOS NO INFORMAN</t>
+          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -4618,9 +4548,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Femicidio</t>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4643,7 +4573,7 @@
           <t>https://www.biobiochile.cl/noticias/nacional/region-de-ohiggins/2023/09/18/asesino-a-expareja-y-escapo-en-bicicleta-brutal-femicidio-impacta-a-comuna-de-peralillo-en-ohiggins.shtml</t>
         </is>
       </c>
-      <c r="AH39" t="inlineStr">
+      <c r="AI39" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
@@ -4700,7 +4630,12 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>MEDIOS NO INFORMAN</t>
+          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
@@ -4715,27 +4650,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Quellón</t>
+          <t>Vallenar</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Los Lagos</t>
+          <t>Atacama</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Alexandra Benítez Quina</t>
+          <t>Nimi Cárdenas Salazar</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -4743,84 +4678,14 @@
           <t>Colombiana</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Trabajadora sexual</t>
-        </is>
-      </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Es asesinada en el domicilio del femicida, quien era su cliente, con el argumento de que "no tenía dinero para pagarle". Sujeto abandona el cuerpo de la víctima en multicancha frente a su casa, donde es encontrada por las policías</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Asfixiada</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Cliente sexual</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Femicidio no íntimo</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>MEDIOS NO INFORMAN</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Chileno</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
+          <t>Se desconocen detalles del femicidio, más se encuentro consignado por Sernameg</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
         <is>
           <t>Si</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>Femicidio</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>En curso</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>2023-09-27</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>Prisión preventiva</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>Juzgado de garantía de Quellón</t>
-        </is>
-      </c>
-      <c r="AF41" t="inlineStr">
-        <is>
-          <t>https://www.biobiochile.cl/noticias/nacional/region-de-los-lagos/2023/09/26/femicidio-en-quellon-hombre-habria-asesinado-a-mujer-tras-no-poder-pagarle-servicios-sexuales.shtml</t>
         </is>
       </c>
     </row>
@@ -4830,79 +4695,99 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Quellón</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Alexandra Benítez Quina</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Colombiana</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Trabajadora sexual</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Es asesinada en el domicilio del femicida, quien era su cliente, con el argumento de que "no tenía dinero para pagarle". Sujeto abandona el cuerpo de la víctima en multicancha frente a su casa, donde es encontrada por las policías</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Asfixiada</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Cliente sexual</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Femicidio no íntimo</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
           <t>2023-09-27</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>San Vicente de Tagua Tagua</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>O'Higgins</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Camila Ugalde Gómez</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Chilena</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Agredida en el domicilio que compartían, ubicado en la localidad de Zuñiga. El femicida la enterró en el patio de la casa para ocultar el crimen, por lo que estuvo extraviada desde diciembre de 2021 hasta agosto de 2023, cuando sus restos fueron encontrados. Sujeto es detenido por las policías en septiembre en Monte Patria</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Conviviente</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Femicidio íntimo</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Francisco Ramírez</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>Femicidio</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>Inhumación ilegal</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>En curso</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>2023-09-28</t>
-        </is>
-      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>Prisión preventiva</t>
@@ -4910,12 +4795,12 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de San Vicente de Tagua Tagua</t>
+          <t>Juzgado de garantía de Quellón</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>https://www.cooperativa.cl/noticias/pais/policial/femicidio/por-femicidio-detuvieron-a-expareja-de-mujer-enterrada-en-un-predio/2023-09-27/181103.html?region=656</t>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-de-los-lagos/2023/09/26/femicidio-en-quellon-hombre-habria-asesinado-a-mujer-tras-no-poder-pagarle-servicios-sexuales.shtml</t>
         </is>
       </c>
     </row>
@@ -4925,42 +4810,37 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>San Vicente de Tagua Tagua</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Karen Xiomara Gómez Bravo</t>
+          <t>Camila Javiera Ugalde Gómez</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Colombiana</t>
+          <t>Chilena</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Discutió con pareja y este la baleó en el subterráneo del edificio donde vivían. Se encontraban hace un año aproximadamente en Chile. Femicida se encuentra prófugo.</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Baleada</t>
+          <t>Agredida en el domicilio que compartían, ubicado en la localidad de Zuñiga. El femicida la enterró en el patio de la casa para ocultar el crimen, por lo que estuvo extraviada desde diciembre de 2021 hasta agosto de 2023, cuando sus restos fueron encontrados. Sujeto es detenido por las policías en septiembre en Monte Patria</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -4975,17 +4855,22 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Víctor Manuel Salcedo</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Colombiano</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>Femicidio</t>
+          <t>Francisco Ramírez</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Inhumación ilegal</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -4993,24 +4878,24 @@
           <t>En curso</t>
         </is>
       </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Prófugo</t>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Juzgado de Garantía de San Vicente de Tagua Tagua</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>https://www.cnnchile.com/pais/femicidio-santiago-subterraneo-edificio_20231016/</t>
-        </is>
-      </c>
-      <c r="AG43" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/reel/CyjQcHcOeFs/?igshid=MTc4MmM1YmI2Ng%3D%3D</t>
-        </is>
-      </c>
-      <c r="AH43" t="inlineStr">
-        <is>
-          <t>2023-11-03</t>
+          <t>https://www.cooperativa.cl/noticias/pais/policial/femicidio/por-femicidio-detuvieron-a-expareja-de-mujer-enterrada-en-un-predio/2023-09-27/181103.html?region=656</t>
         </is>
       </c>
     </row>
@@ -5020,12 +4905,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Puente Alto</t>
+          <t>Santiago</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -5035,22 +4920,27 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Teresa Cea Cea</t>
+          <t>Karen Xiomara Gómez Bravo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Chilena</t>
+          <t>Colombiana</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Ambos son encontrados por hijo de ella, al interior del domicilio que compartían</t>
+          <t>Discutió con pareja y este la baleó en el subterráneo del edificio donde vivían. Se encontraban hace un año aproximadamente en Chile. Femicida se encuentra prófugo.</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Baleada</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -5065,27 +4955,42 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>MEDIOS NO INFORMAN</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
+          <t>Víctor Manuel Salcedo</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Colombiano</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>Sobreseída</t>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>Prófugo</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>https://www.24horas.cl/actualidad/nacional/investigan-femicidio-y-posterior-suicidio-en-puente-alto</t>
+          <t>https://www.cnnchile.com/pais/femicidio-santiago-subterraneo-edificio_20231016/</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reel/CyjQcHcOeFs/?igshid=MTc4MmM1YmI2Ng%3D%3D</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
         </is>
       </c>
     </row>
@@ -5095,12 +5000,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Renca</t>
+          <t>Puente Alto</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -5110,12 +5015,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Gabriela Salazar Valenzuela</t>
+          <t>Teresa Flor Cea Cea</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -5123,49 +5028,49 @@
           <t>Chilena</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>En situación de calle</t>
-        </is>
-      </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Este hecho ocurre en un sitio eriazo, cercano a la línea del tren, en donde víctima y femicida convivían en situación de calle. La mujer es trasladada al Cesfam donde fallece producto de una herida cortopunzante en el tórax, el personal de salud reporta sobre el fallecimiento de la mujer a carabineros, al llegar personas les informan que el presunto responsable se encontraba en los alrededores del centro asistencial, escondido en un local comercial del sector donde es encontrado con una corta pluma que tenía indicios de sangre, siendo además identificado por testigos como pareja de la víctima.</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Apuñalada</t>
+          <t>Ambos son encontrados por hijo de ella, al interior del domicilio que compartían</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pareja</t>
+          <t>Conviviente</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>MEDIOS NO INFORMAN</t>
+          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>En situación de calle</t>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>Sobreseída</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>https://www.cooperativa.cl/noticias/pais/policial/femicidio/femicidio-en-renca-mujer-en-situacion-de-calle-murio-apunalada/2023-10-27/103036.html?s=09</t>
-        </is>
-      </c>
-      <c r="AG45" t="inlineStr">
-        <is>
-          <t>https://www.biobiochile.cl/noticias/nacional/region-metropolitana/2023/10/26/investigan-posible-femicidio-en-renca-asesinan-a-mujer-tras-apunalarla-y-arrestan-a-pareja.shtml</t>
+          <t>https://www.24horas.cl/actualidad/nacional/investigan-femicidio-y-posterior-suicidio-en-puente-alto</t>
         </is>
       </c>
     </row>
@@ -5175,52 +5080,87 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-10-26</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Constitución</t>
+          <t>Renca</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>El Maule</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Medios no informan</t>
+          <t>Gabriela Salazar Valenzuela</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Situación de calle</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Mujer embarazada, de 35 años de edad, fue encontrada muerta en la ciudad de Constitución, la víctima presentaba lesiones atribuibles a proyectil balístico en la región escapular derecha</t>
+          <t>Este hecho ocurre en un sitio eriazo, cercano a la línea del tren, en donde víctima y femicida convivían en situación de calle. La mujer es trasladada al Cesfam donde fallece producto de una herida cortopunzante en el tórax, el personal de salud reporta sobre el fallecimiento de la mujer a carabineros, al llegar personas les informan que el presunto responsable se encontraba en los alrededores del centro asistencial, escondido en un local comercial del sector donde es encontrado con una corta pluma que tenía indicios de sangre, siendo además identificado por testigos como pareja de la víctima.</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Baleada</t>
+          <t>Apuñalada</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Femicidio ínto</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>MEDIOS NO INFORMAN</t>
+          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>En situación de calle</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>https://www.cnnchile.com/pais/mujer-embarazada-muerta-constitucion-impacto-bala_20231029/?s=09</t>
+          <t>https://www.cooperativa.cl/noticias/pais/policial/femicidio/femicidio-en-renca-mujer-en-situacion-de-calle-murio-apunalada/2023-10-27/103036.html?s=09</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>https://cooperativa.cl/noticias/pais/region-del-maule/hallan-a-mujer-embarazada-muerta-en-constitucion-tenia-un-impacto/2023-10-29/193211.html</t>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-metropolitana/2023/10/26/investigan-posible-femicidio-en-renca-asesinan-a-mujer-tras-apunalarla-y-arrestan-a-pareja.shtml</t>
         </is>
       </c>
     </row>
@@ -5230,62 +5170,62 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2023-12-02</t>
+          <t>2023-10-28</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Lo Barnechea</t>
+          <t>Constitución</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Metropolitana</t>
+          <t>El Maule</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sandra Almeida Lizama</t>
+          <t>MEDIOS NO INFORMAN</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Chilena</t>
+          <t>35</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Producto de golpes de pies, puños y una pala en la vía pública, fallece tras seis días de hospitalización. El sujeto ya la había agredido verbalmente con anterioridad por su identidad de género y por defender a otras mujeres del sector. Cercanas a la víctima indican que se trataba de una persona transmasculina</t>
+          <t>Mujer embarazada, de 35 años de edad, fue encontrada muerta en la ciudad de Constitución, la víctima presentaba lesiones atribuibles a proyectil balístico en la región escapular derecha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Golpes</t>
+          <t>Baleada</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Transfemicidio</t>
+          <t>DESCONOCIDO</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Christopher Pino Pino</t>
+          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>https://www.24horas.cl/actualidad/nacional/muere-sandra-almeida-lizama-sufrio-brutal-golpiza-en-lo-barnechea</t>
+          <t>https://www.cnnchile.com/pais/mujer-embarazada-muerta-constitucion-impacto-bala_20231029/?s=09</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>https://www.biobiochile.cl/noticias/nacional/region-metropolitana/2023/11/30/detienen-a-acusado-de-agresion-transfobica-contra-persona-que-quedo-en-coma-en-lo-barnechea.shtml</t>
+          <t>https://cooperativa.cl/noticias/pais/region-del-maule/hallan-a-mujer-embarazada-muerta-en-constitucion-tenia-un-impacto/2023-10-29/193211.html</t>
         </is>
       </c>
     </row>
@@ -5295,27 +5235,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2023-12-06</t>
+          <t>2023-12-02</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ovalle</t>
+          <t>Lo Barnechea</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Metropolitana</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Rossana Del Carmen Flores Vega</t>
+          <t>Sandra Almeida Lizama</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -5325,22 +5265,37 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Es atacada por su pareja en el hogar que compartían. Femicida es detenido por las policías tratando de huir</t>
+          <t>Producto de golpes de pies, puños y una pala en la vía pública, fallece tras seis días de hospitalización. El sujeto ya la había agredido verbalmente con anterioridad por su identidad de género y por defender a otras mujeres del sector. Cercanas a la víctima indican que se trataba de una persona transmasculina</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Apuñalada</t>
+          <t>Golpes</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Transfemicidio</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>MEDIOS NO INFORMAN</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>40</t>
+          <t>Christopher Pino Pino</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>https://www.24horas.cl/actualidad/nacional/muere-sandra-almeida-lizama-sufrio-brutal-golpiza-en-lo-barnechea</t>
+        </is>
+      </c>
+      <c r="AG48" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-metropolitana/2023/11/30/detienen-a-acusado-de-agresion-transfobica-contra-persona-que-quedo-en-coma-en-lo-barnechea.shtml</t>
         </is>
       </c>
     </row>
@@ -5350,27 +5305,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Loncoche</t>
+          <t>Ovalle</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Araucanía</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>María Cristina Rodríguez Álvarez</t>
+          <t>Rossana Del Carmen Flores Vega</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -5378,19 +5333,14 @@
           <t>Chilena</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Asistente de educación</t>
-        </is>
-      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Es agredida en su domicilio por su pareja. Se establece plazo de investigación de seis meses</t>
+          <t>Es atacada por su pareja en el hogar que compartían. Femicida es detenido por las policías tratando de huir</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Degollada</t>
+          <t>Apuñalada</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -5398,99 +5348,169 @@
           <t>Pareja</t>
         </is>
       </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>MEDIOS NO INFORMAN</t>
+          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
           <t>En curso</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>2023-12-21</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>Prisión preventiva</t>
-        </is>
-      </c>
-      <c r="AF49" t="inlineStr">
-        <is>
-          <t>https://cooperativa.cl/noticias/pais/region-de-la-araucania/prision-preventiva-para-imputado-por-femicidio-en-loncoche/2023-12-21/222930.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>Loncoche</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Metropolitano</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Keny</t>
+          <t>María Cristina Rodríguez Álvarez</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Colombiana</t>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Asistente de educación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Keny estaba en una fiesta junto a varias y varios jóvenes más, al parecer le dispararon y sus amistades intentaron llevarla a urgencias, pero la dejaron en la calle</t>
+          <t>Es agredida por su pareja y padre de sus hijas en el domicilio que ambos compartían. Habían antecedentes de violencia</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Degollada</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>conocidos</t>
+          <t>Pareja</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Transfemicidio</t>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>R..E.A.L (MEDIOS PROTEGEN SU IDENTIDAD)</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>https://cooperativa.cl/noticias/pais/region-de-la-araucania/prision-preventiva-para-imputado-por-femicidio-en-loncoche/2023-12-21/222930.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2023-01-21</t>
+          <t>2023-12-26</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Las Condes</t>
+          <t>Pudahuel</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5500,12 +5520,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Stephanie Subercaseaux Vergara</t>
+          <t>Marianela Santander Vega</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -5513,39 +5533,39 @@
           <t>Chilena</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Radióloga y Ciclista</t>
-        </is>
-      </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Se suicidó el 21 de enero.  Stephanie fue víctima de violencia machista ejercida por Antonio Cabrera (42). Ella lo había denunciado en 2020. En 2022 la justicia decidió no perseverar en la causa y levantó la orden de alejamiento que tenía el agresor.</t>
+          <t>Fue violada y asesinada por su sobrino</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Psicológica, física y sexual</t>
+          <t>Se desconoce</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Ex pareja</t>
+          <t>Sobrino</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Suicidio Femicida</t>
+          <t>Femicidio íntimo familiar</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Antonio Cabrera</t>
+          <t>Gary Leon Santander</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>26</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -5553,57 +5573,317 @@
           <t>Chileno</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>Seleccionado nacional de ciclismo</t>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>En 2020 había denunciado por violencia intrafamiliar</t>
+          <t>Había salido de la cárcel hace pocas semanas, luego de cumplir una condena de robo con intimidación</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AF51" t="inlineStr">
-        <is>
-          <t>https://www.elagora.net/los-espeluznantes-detalles-de-la-acusacion-contra-ciclista-cabrera/ https://www.deportes13.cl/polideportivo/quien-era-stephanie-subercaseaux-la-ciclista-chilena-que-fallecio-y-que-habia?utm_source=Twitter&amp;utm_medium=Stack&amp;utm_campaign=Share13&amp;utm_id=share13</t>
-        </is>
-      </c>
-      <c r="AG51" t="inlineStr">
-        <is>
-          <t>https://www.latercera.com/el-deportivo/noticia/el-calvario-de-stephanie-subercaseaux/WIVUNRBK3JCY5FXEIHYZTYOMGE/?outputType=amp</t>
-        </is>
-      </c>
-      <c r="AH51" t="inlineStr">
-        <is>
-          <t>2023-02-01</t>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Violación con femicidio</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>En curso</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2023-12-28</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>La Pintana</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Nataly Muñoz Thather</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Fue asficiada por su ex pareja. Nataly intentó alertar a su familia de la situación por medio de una llamada a su madre, más cuando llegó Carabineros ya estaba muerta</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Asfixiada</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Ex pareja</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Metropolitano</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Keny</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Colombiana</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Keny estaba en una fiesta junto a varias y varios jóvenes más, al parecer le dispararon y sus amistades intentaron llevarla a urgencias, pero la dejaron en la calle</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Coonocidos</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Transfemicidio</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Las Condes</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Stephanie Subercaseaux Vergara</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Radióloga y Ciclista</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Se suicidó el 21 de enero.  Stephanie fue víctima de violencia machista ejercida por Antonio Cabrera (42). Ella lo había denunciado en 2020. En 2022 la justicia decidió no perseverar en la causa y levantó la orden de alejamiento que tenía el agresor.</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Psicológica, física y sexual</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Ex pareja</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Suicidio Femicida</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Antonio Cabrera</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Seleccionado nacional de ciclismo</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>En 2020 había denunciado por violencia intrafamiliar</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>https://www.elagora.net/los-espeluznantes-detalles-de-la-acusacion-contra-ciclista-cabrera/ https://www.deportes13.cl/polideportivo/quien-era-stephanie-subercaseaux-la-ciclista-chilena-que-fallecio-y-que-habia?utm_source=Twitter&amp;utm_medium=Stack&amp;utm_campaign=Share13&amp;utm_id=share13</t>
+        </is>
+      </c>
+      <c r="AG54" t="inlineStr">
+        <is>
+          <t>https://www.latercera.com/el-deportivo/noticia/el-calvario-de-stephanie-subercaseaux/WIVUNRBK3JCY5FXEIHYZTYOMGE/?outputType=amp</t>
+        </is>
+      </c>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
         <v>2</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>2023-11-08</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>Francisca Romero Valenzuela</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>Su ex pareja la hostigaba constantemente, a pesar de contar con orden de alejamiento. La amenazó de muerte en más de una ocasión.</t>
         </is>
